--- a/data/trans_dic/IP1022_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1022_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>5,75%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,8</t>
+          <t>3,59; 10,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 11,05</t>
+          <t>2,78; 7,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,97</t>
+          <t>3,97; 8,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,3</t>
+          <t>5,62; 10,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,85</t>
+          <t>5,63; 11,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 8,09</t>
+          <t>6,13; 9,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1022_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1022_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,99</t>
+          <t>1,18; 10,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 6,59</t>
+          <t>0,67; 8,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,98</t>
+          <t>1,59; 7,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,25%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,3</t>
+          <t>3,15; 8,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,85</t>
+          <t>2,63; 8,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 8,09</t>
+          <t>3,59; 7,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>6,42%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,8</t>
+          <t>4,62; 11,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 11,05</t>
+          <t>2,59; 8,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,97</t>
+          <t>4,4; 9,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,35</t>
+          <t>5,39; 11,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,31</t>
+          <t>6,12; 12,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,12</t>
+          <t>6,61; 11,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 9,17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 8,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,62; 8,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP1022_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1022_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 10,52</t>
+          <t>1,26; 10,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 8,49</t>
+          <t>0,64; 8,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,36</t>
+          <t>1,32; 7,48</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,97</t>
+          <t>3,12; 8,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,45</t>
+          <t>2,6; 8,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,69</t>
+          <t>3,5; 7,6</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,78</t>
+          <t>4,59; 12,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,17</t>
+          <t>2,47; 8,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,28</t>
+          <t>4,15; 8,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 11,85</t>
+          <t>5,64; 12,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 12,59</t>
+          <t>6,16; 13,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,18</t>
+          <t>6,52; 11,29</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,17</t>
+          <t>5,64; 9,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,75; 8,27</t>
+          <t>4,88; 8,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,32</t>
+          <t>5,56; 8,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1022_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1022_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 10,47</t>
+          <t>0,64; 8,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 8,12</t>
+          <t>1,55; 12,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,48</t>
+          <t>1,71; 8,17</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,3%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 8,84</t>
+          <t>2,77; 8,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,12</t>
+          <t>3,35; 8,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,6</t>
+          <t>3,52; 7,5</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 12,15</t>
+          <t>2,57; 8,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,11</t>
+          <t>4,66; 12,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,99</t>
+          <t>4,37; 9,12</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>9,34%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 12,64</t>
+          <t>5,6; 15,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,17</t>
+          <t>6,04; 16,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,52; 11,29</t>
+          <t>6,6; 13,33</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,13%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,29</t>
+          <t>4,81; 9,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,39</t>
+          <t>5,82; 10,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,17</t>
+          <t>5,75; 9,02</t>
         </is>
       </c>
     </row>
